--- a/IBK/excel/OCR 시범사업 서류_selvas(최종ㅇ)-brief-field.xlsx
+++ b/IBK/excel/OCR 시범사업 서류_selvas(최종ㅇ)-brief-field.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwans\Desktop\업무\2019 IBK 수출입문서 PoC\2019.4.25 인식 대상 필드\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ABD1FE-C115-474D-8124-F30D8CB1DB1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="4" r:id="rId1"/>
@@ -23,12 +17,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 사용자</author>
   </authors>
   <commentList>
-    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{71769A74-C3B8-4AD8-8C1F-BF7CF48CC874}">
+    <comment ref="E21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +36,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,12 +387,55 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>file name,"040152193000032_304023_20190221_301902211414140a.1.jpg"</t>
+  </si>
+  <si>
+    <t>category,"BILL OF LADING"</t>
+  </si>
+  <si>
+    <t>PORT OF LOADING,</t>
+  </si>
+  <si>
+    <t>PLACE OF RECEIPT, &lt;</t>
+  </si>
+  <si>
+    <t>PORT OF DISCHARGE,"SURABAYA SEAPORT. ** SURABAYA SEAPORT. **",</t>
+  </si>
+  <si>
+    <t>CONSIGNEE,"PT. BANK MIZUHO INDONESIA",</t>
+  </si>
+  <si>
+    <t>SHIPPER,"KYUNG-IN PRECISION MACHINERY CO..LTD.","92-8 SI WOO-RO. DANWON-GU. ANSAN-SI. GYEONGGI-DO","15436. SOUTH KOREA.",</t>
+  </si>
+  <si>
+    <t>NOTIFY,"PT. PABRIK KERTAS TJIWI KIMIA TBK.","HEAD OFFICE: SINAR MAS LAND PLAZA MENARA 2 LT.7.","JL. M.H. THAMRIN NO.51 GONDANGDIA MENTENG. 10350","JAKARTA PUSAT INDONESIA",</t>
+  </si>
+  <si>
+    <t>VESSEL NAME,"",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRIER,"", </t>
+  </si>
+  <si>
+    <t>PLACE OF ISSUE,"",&lt;</t>
+  </si>
+  <si>
+    <t>ORIGIN,"",&lt;</t>
+  </si>
+  <si>
+    <t>SHIPPING LINE,"KYUNG-IN PRECISION MACHINERY CO..LTD.",&lt;</t>
+  </si>
+  <si>
+    <t>PLACE OF DELIVERY,"SURABAYA SEAPORT. ** SURABAYA SEAPORT. **",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +502,14 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -588,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,34 +661,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,27 +670,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -686,6 +689,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -748,7 +799,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -781,26 +832,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -833,23 +867,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1025,11 +1042,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1040,20 +1057,22 @@
     <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="4" customWidth="1"/>
     <col min="6" max="6" width="50.375" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="29.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="167" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1073,241 +1092,283 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11">
+    <row r="5" spans="1:8" ht="27">
+      <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="9">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="17">
+      <c r="G5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="9">
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="17">
+      <c r="G6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="81">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="9">
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="17">
+      <c r="G7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="9">
         <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="17">
+      <c r="G8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="9">
         <v>5</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="31">
+      <c r="G9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="17">
         <v>6</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="17">
+      <c r="H10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="9">
         <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="18">
+      <c r="G11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="19">
         <v>2</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="10">
         <v>1</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="31">
+      <c r="H12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="17">
         <v>2</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="31">
+    <row r="14" spans="1:8">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="33">
         <v>3</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="31">
+    <row r="15" spans="1:8">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="17">
         <v>4</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="11">
+    <row r="16" spans="1:8">
+      <c r="A16" s="25">
         <v>3</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="9">
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="17">
+      <c r="H16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="9">
         <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="18">
+      <c r="H17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="19">
         <v>4</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="17">
         <v>1</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="31">
+      <c r="H18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="17">
         <v>2</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="19">
+    <row r="20" spans="1:8">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="10">
         <v>3</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="11">
+    <row r="21" spans="1:8">
+      <c r="A21" s="25">
         <v>5</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="2">
@@ -1317,11 +1378,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="2">
         <v>2</v>
       </c>
@@ -1329,11 +1390,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+    <row r="23" spans="1:8">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="2">
         <v>3</v>
       </c>
@@ -1341,11 +1402,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="2">
         <v>4</v>
       </c>
@@ -1353,11 +1414,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="27">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+    <row r="25" spans="1:8" ht="27">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="2">
         <v>5</v>
       </c>
@@ -1365,11 +1426,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="2">
         <v>6</v>
       </c>
@@ -1377,11 +1438,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+    <row r="27" spans="1:8">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="2">
         <v>7</v>
       </c>
@@ -1389,11 +1450,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="2">
         <v>8</v>
       </c>
@@ -1401,11 +1462,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+    <row r="29" spans="1:8">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="2">
         <v>9</v>
       </c>
@@ -1413,11 +1474,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="2">
         <v>10</v>
       </c>
@@ -1425,11 +1486,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+    <row r="31" spans="1:8">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="2">
         <v>11</v>
       </c>
@@ -1437,157 +1498,157 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="82.5" customHeight="1">
-      <c r="A32" s="18">
+    <row r="32" spans="1:8" ht="82.5" customHeight="1">
+      <c r="A32" s="19">
         <v>6</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="10">
         <v>1</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="19">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="10">
         <v>2</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="19">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="10">
         <v>3</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="19">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="10">
         <v>4</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="19">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="10">
         <v>5</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="19">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="10">
         <v>6</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="19">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="10">
         <v>7</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="19">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="10">
         <v>8</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="19">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="10">
         <v>9</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="19">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="10">
         <v>10</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="19">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="10">
         <v>11</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="11">
+      <c r="A43" s="25">
         <v>7</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="3">
@@ -1598,58 +1659,58 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="12"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="28">
+      <c r="A44" s="26"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="14">
         <v>2</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="12"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="28">
+      <c r="A45" s="26"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="14">
         <v>3</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="12"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="28">
+      <c r="A46" s="26"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="14">
         <v>4</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="12"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="28">
+      <c r="A47" s="26"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="14">
         <v>5</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F47" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="12"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
       <c r="E48" s="3">
         <v>6</v>
       </c>
@@ -1658,10 +1719,10 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="12"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
       <c r="E49" s="3">
         <v>7</v>
       </c>
@@ -1670,10 +1731,10 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="12"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
       <c r="E50" s="3">
         <v>8</v>
       </c>
@@ -1682,10 +1743,10 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="12"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
       <c r="E51" s="3">
         <v>9</v>
       </c>
@@ -1694,10 +1755,10 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="12"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
       <c r="E52" s="3">
         <v>10</v>
       </c>
@@ -1706,10 +1767,10 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="13"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="3">
         <v>11</v>
       </c>
@@ -1718,123 +1779,144 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="18">
+      <c r="A54" s="19">
         <v>8</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="12">
         <v>1</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="21"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="24">
+      <c r="A55" s="20"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="12">
         <v>2</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="21"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="24">
+      <c r="A56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="12">
         <v>3</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="21"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="24">
+      <c r="A57" s="20"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="12">
         <v>4</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F57" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="21"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="24">
+      <c r="A58" s="20"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="12">
         <v>5</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="F58" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="21"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="24">
+      <c r="A59" s="20"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="12">
         <v>6</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="21"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="24">
+      <c r="A60" s="20"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="12">
         <v>7</v>
       </c>
-      <c r="F60" s="20" t="s">
+      <c r="F60" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="21"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="24">
+      <c r="A61" s="20"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="12">
         <v>8</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="F61" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="22"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="24">
+      <c r="A62" s="21"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="12">
         <v>9</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="11" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="B21:B31"/>
+    <mergeCell ref="C21:C31"/>
+    <mergeCell ref="D21:D31"/>
     <mergeCell ref="A32:A42"/>
     <mergeCell ref="B32:B42"/>
     <mergeCell ref="C32:C42"/>
@@ -1847,27 +1929,6 @@
     <mergeCell ref="B43:B53"/>
     <mergeCell ref="C43:C53"/>
     <mergeCell ref="D43:D53"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="B21:B31"/>
-    <mergeCell ref="C21:C31"/>
-    <mergeCell ref="D21:D31"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="D5:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IBK/excel/OCR 시범사업 서류_selvas(최종ㅇ)-brief-field.xlsx
+++ b/IBK/excel/OCR 시범사업 서류_selvas(최종ㅇ)-brief-field.xlsx
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shipment date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vessel name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,6 +424,10 @@
   </si>
   <si>
     <t>PLACE OF DELIVERY,"SURABAYA SEAPORT. ** SURABAYA SEAPORT. **",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipment date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1086,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>3</v>
@@ -1112,10 +1112,10 @@
         <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1130,10 +1130,10 @@
         <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="81">
@@ -1148,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
@@ -1163,10 +1163,10 @@
         <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1181,7 +1181,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1193,10 +1193,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1208,10 +1208,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1231,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1270,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1290,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1305,10 +1305,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1328,10 +1328,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1343,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1387,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1399,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1411,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
@@ -1423,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1435,7 +1435,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1447,7 +1447,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1459,7 +1459,7 @@
         <v>8</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1471,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1483,7 +1483,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1495,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="82.5" customHeight="1">
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1527,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1539,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1551,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1563,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1575,7 +1575,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1587,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1599,7 +1599,7 @@
         <v>8</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1611,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1623,7 +1623,7 @@
         <v>10</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1635,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1667,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1679,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1691,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1715,7 +1715,7 @@
         <v>6</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1727,7 +1727,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1739,7 +1739,7 @@
         <v>8</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1751,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1763,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1775,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1807,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1819,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1831,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1843,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1855,7 +1855,7 @@
         <v>6</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1867,7 +1867,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1879,7 +1879,7 @@
         <v>8</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1891,7 +1891,7 @@
         <v>9</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
